--- a/full_results.xlsx
+++ b/full_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Desktop\Universita\Polito\Advanced Machine Learning\aml23-ego\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BDAB96-0BD1-4469-AD12-E9092DE19B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ADF9DF-1597-41EB-AF56-D03C6DCE2957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{70112109-FF6D-AE4E-A8C7-01A265C28307}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1290,10 +1290,40 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1302,13 +1332,109 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,19 +1443,10 @@
     <xf numFmtId="11" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,149 +1455,27 @@
     <xf numFmtId="11" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="7" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1981,56 +1976,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:20" ht="46.5">
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
     </row>
     <row r="3" spans="4:20" ht="15.95" customHeight="1">
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="4:20" ht="15.95" customHeight="1">
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
     </row>
     <row r="5" spans="4:20">
       <c r="D5" s="8"/>
@@ -2091,10 +2086,10 @@
       </c>
     </row>
     <row r="8" spans="4:20">
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="40">
         <v>5</v>
       </c>
       <c r="F8" s="3">
@@ -2115,10 +2110,10 @@
       <c r="K8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="40">
         <v>5</v>
       </c>
       <c r="O8" s="3">
@@ -2141,8 +2136,8 @@
       </c>
     </row>
     <row r="9" spans="4:20">
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="3">
         <v>2</v>
       </c>
@@ -2161,8 +2156,8 @@
       <c r="K9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="3">
         <v>2</v>
       </c>
@@ -2183,8 +2178,8 @@
       </c>
     </row>
     <row r="10" spans="4:20" ht="15" customHeight="1">
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="3">
         <v>3</v>
       </c>
@@ -2203,8 +2198,8 @@
       <c r="K10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="3">
         <v>3</v>
       </c>
@@ -2225,8 +2220,8 @@
       </c>
     </row>
     <row r="11" spans="4:20">
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="3">
         <v>1</v>
       </c>
@@ -2245,8 +2240,8 @@
       <c r="K11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="3">
         <v>1</v>
       </c>
@@ -2267,8 +2262,8 @@
       </c>
     </row>
     <row r="12" spans="4:20">
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="3">
         <v>2</v>
       </c>
@@ -2287,8 +2282,8 @@
       <c r="K12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="3">
         <v>2</v>
       </c>
@@ -2309,8 +2304,8 @@
       </c>
     </row>
     <row r="13" spans="4:20">
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="3">
         <v>3</v>
       </c>
@@ -2329,8 +2324,8 @@
       <c r="K13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="3">
         <v>3</v>
       </c>
@@ -2351,8 +2346,8 @@
       </c>
     </row>
     <row r="14" spans="4:20">
-      <c r="D14" s="34"/>
-      <c r="E14" s="34">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40">
         <v>10</v>
       </c>
       <c r="F14" s="3">
@@ -2373,8 +2368,8 @@
       <c r="K14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40">
         <v>10</v>
       </c>
       <c r="O14" s="3">
@@ -2397,8 +2392,8 @@
       </c>
     </row>
     <row r="15" spans="4:20">
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="3">
         <v>2</v>
       </c>
@@ -2417,8 +2412,8 @@
       <c r="K15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="3">
         <v>2</v>
       </c>
@@ -2439,8 +2434,8 @@
       </c>
     </row>
     <row r="16" spans="4:20">
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="3">
         <v>3</v>
       </c>
@@ -2459,8 +2454,8 @@
       <c r="K16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
       <c r="O16" s="3">
         <v>3</v>
       </c>
@@ -2481,8 +2476,8 @@
       </c>
     </row>
     <row r="17" spans="4:20">
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="3">
         <v>1</v>
       </c>
@@ -2501,8 +2496,8 @@
       <c r="K17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="3">
         <v>1</v>
       </c>
@@ -2523,8 +2518,8 @@
       </c>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="3">
         <v>2</v>
       </c>
@@ -2543,8 +2538,8 @@
       <c r="K18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
       <c r="O18" s="3">
         <v>2</v>
       </c>
@@ -2565,8 +2560,8 @@
       </c>
     </row>
     <row r="19" spans="4:20">
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="3">
         <v>3</v>
       </c>
@@ -2585,8 +2580,8 @@
       <c r="K19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="3">
         <v>3</v>
       </c>
@@ -2607,8 +2602,8 @@
       </c>
     </row>
     <row r="20" spans="4:20">
-      <c r="D20" s="34"/>
-      <c r="E20" s="34">
+      <c r="D20" s="40"/>
+      <c r="E20" s="40">
         <v>25</v>
       </c>
       <c r="F20" s="3">
@@ -2629,8 +2624,8 @@
       <c r="K20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34">
+      <c r="M20" s="40"/>
+      <c r="N20" s="40">
         <v>25</v>
       </c>
       <c r="O20" s="3">
@@ -2653,8 +2648,8 @@
       </c>
     </row>
     <row r="21" spans="4:20">
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="3">
         <v>2</v>
       </c>
@@ -2673,8 +2668,8 @@
       <c r="K21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="3">
         <v>2</v>
       </c>
@@ -2695,8 +2690,8 @@
       </c>
     </row>
     <row r="22" spans="4:20">
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="3">
         <v>3</v>
       </c>
@@ -2715,8 +2710,8 @@
       <c r="K22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
       <c r="O22" s="3">
         <v>3</v>
       </c>
@@ -2737,8 +2732,8 @@
       </c>
     </row>
     <row r="23" spans="4:20">
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="3">
         <v>1</v>
       </c>
@@ -2757,8 +2752,8 @@
       <c r="K23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="3">
         <v>1</v>
       </c>
@@ -2779,8 +2774,8 @@
       </c>
     </row>
     <row r="24" spans="4:20">
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="3">
         <v>2</v>
       </c>
@@ -2799,8 +2794,8 @@
       <c r="K24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
       <c r="O24" s="3">
         <v>2</v>
       </c>
@@ -2821,8 +2816,8 @@
       </c>
     </row>
     <row r="25" spans="4:20">
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="3">
         <v>3</v>
       </c>
@@ -2842,8 +2837,8 @@
         <v>24</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="3">
         <v>3</v>
       </c>
@@ -2856,59 +2851,59 @@
       <c r="R25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="S25" s="95" t="s">
+      <c r="S25" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="T25" s="95" t="s">
+      <c r="T25" s="38" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="4:20">
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
     </row>
     <row r="27" spans="4:20">
       <c r="H27" s="1"/>
     </row>
     <row r="29" spans="4:20" ht="15.95" customHeight="1">
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
     </row>
     <row r="30" spans="4:20" ht="15.95" customHeight="1">
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
     </row>
     <row r="31" spans="4:20">
       <c r="D31" s="8"/>
@@ -2970,10 +2965,10 @@
       </c>
     </row>
     <row r="34" spans="4:20">
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="40">
         <v>5</v>
       </c>
       <c r="F34" s="6">
@@ -2995,10 +2990,10 @@
         <v>14</v>
       </c>
       <c r="L34" s="11"/>
-      <c r="M34" s="34" t="s">
+      <c r="M34" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="34">
+      <c r="N34" s="40">
         <v>5</v>
       </c>
       <c r="O34" s="3">
@@ -3021,8 +3016,8 @@
       </c>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="3">
         <v>3</v>
       </c>
@@ -3042,8 +3037,8 @@
         <v>59</v>
       </c>
       <c r="L35" s="11"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
       <c r="O35" s="3">
         <v>3</v>
       </c>
@@ -3064,8 +3059,8 @@
       </c>
     </row>
     <row r="36" spans="4:20">
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="3">
         <v>4</v>
       </c>
@@ -3085,8 +3080,8 @@
         <v>17</v>
       </c>
       <c r="L36" s="11"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
       <c r="O36" s="3">
         <v>4</v>
       </c>
@@ -3107,8 +3102,8 @@
       </c>
     </row>
     <row r="37" spans="4:20">
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="6">
         <v>2</v>
       </c>
@@ -3128,8 +3123,8 @@
         <v>110</v>
       </c>
       <c r="L37" s="11"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
       <c r="O37" s="3">
         <v>2</v>
       </c>
@@ -3150,8 +3145,8 @@
       </c>
     </row>
     <row r="38" spans="4:20">
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="3">
         <v>3</v>
       </c>
@@ -3171,8 +3166,8 @@
         <v>42</v>
       </c>
       <c r="L38" s="11"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
       <c r="O38" s="3">
         <v>3</v>
       </c>
@@ -3193,8 +3188,8 @@
       </c>
     </row>
     <row r="39" spans="4:20">
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="3">
         <v>4</v>
       </c>
@@ -3214,8 +3209,8 @@
         <v>31</v>
       </c>
       <c r="L39" s="11"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
       <c r="O39" s="3">
         <v>4</v>
       </c>
@@ -3236,8 +3231,8 @@
       </c>
     </row>
     <row r="40" spans="4:20">
-      <c r="D40" s="34"/>
-      <c r="E40" s="34">
+      <c r="D40" s="40"/>
+      <c r="E40" s="40">
         <v>10</v>
       </c>
       <c r="F40" s="6">
@@ -3259,8 +3254,8 @@
         <v>17</v>
       </c>
       <c r="L40" s="11"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34">
+      <c r="M40" s="40"/>
+      <c r="N40" s="40">
         <v>10</v>
       </c>
       <c r="O40" s="3">
@@ -3283,8 +3278,8 @@
       </c>
     </row>
     <row r="41" spans="4:20">
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="3">
         <v>3</v>
       </c>
@@ -3304,8 +3299,8 @@
         <v>17</v>
       </c>
       <c r="L41" s="11"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
       <c r="O41" s="3">
         <v>3</v>
       </c>
@@ -3326,8 +3321,8 @@
       </c>
     </row>
     <row r="42" spans="4:20">
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="3">
         <v>4</v>
       </c>
@@ -3347,8 +3342,8 @@
         <v>14</v>
       </c>
       <c r="L42" s="11"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
       <c r="O42" s="3">
         <v>4</v>
       </c>
@@ -3369,8 +3364,8 @@
       </c>
     </row>
     <row r="43" spans="4:20">
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="6">
         <v>2</v>
       </c>
@@ -3390,8 +3385,8 @@
         <v>14</v>
       </c>
       <c r="L43" s="11"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
       <c r="O43" s="3">
         <v>2</v>
       </c>
@@ -3412,8 +3407,8 @@
       </c>
     </row>
     <row r="44" spans="4:20">
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="3">
         <v>3</v>
       </c>
@@ -3433,8 +3428,8 @@
         <v>59</v>
       </c>
       <c r="L44" s="11"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
       <c r="O44" s="3">
         <v>3</v>
       </c>
@@ -3455,8 +3450,8 @@
       </c>
     </row>
     <row r="45" spans="4:20">
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="3">
         <v>4</v>
       </c>
@@ -3476,8 +3471,8 @@
         <v>61</v>
       </c>
       <c r="L45" s="11"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
       <c r="O45" s="3">
         <v>4</v>
       </c>
@@ -3498,8 +3493,8 @@
       </c>
     </row>
     <row r="46" spans="4:20">
-      <c r="D46" s="34"/>
-      <c r="E46" s="34">
+      <c r="D46" s="40"/>
+      <c r="E46" s="40">
         <v>25</v>
       </c>
       <c r="F46" s="6">
@@ -3521,8 +3516,8 @@
         <v>61</v>
       </c>
       <c r="L46" s="11"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34">
+      <c r="M46" s="40"/>
+      <c r="N46" s="40">
         <v>25</v>
       </c>
       <c r="O46" s="3">
@@ -3545,8 +3540,8 @@
       </c>
     </row>
     <row r="47" spans="4:20">
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="3">
         <v>3</v>
       </c>
@@ -3566,8 +3561,8 @@
         <v>10</v>
       </c>
       <c r="L47" s="11"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
       <c r="O47" s="3">
         <v>3</v>
       </c>
@@ -3588,8 +3583,8 @@
       </c>
     </row>
     <row r="48" spans="4:20">
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="3">
         <v>4</v>
       </c>
@@ -3609,8 +3604,8 @@
         <v>61</v>
       </c>
       <c r="L48" s="11"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
       <c r="O48" s="3">
         <v>4</v>
       </c>
@@ -3631,8 +3626,8 @@
       </c>
     </row>
     <row r="49" spans="4:20">
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="6">
         <v>2</v>
       </c>
@@ -3652,8 +3647,8 @@
         <v>42</v>
       </c>
       <c r="L49" s="11"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
       <c r="O49" s="3">
         <v>2</v>
       </c>
@@ -3674,8 +3669,8 @@
       </c>
     </row>
     <row r="50" spans="4:20">
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="3">
         <v>3</v>
       </c>
@@ -3695,8 +3690,8 @@
         <v>42</v>
       </c>
       <c r="L50" s="11"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
       <c r="O50" s="3">
         <v>3</v>
       </c>
@@ -3717,8 +3712,8 @@
       </c>
     </row>
     <row r="51" spans="4:20">
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="3">
         <v>4</v>
       </c>
@@ -3737,8 +3732,8 @@
       <c r="K51" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
       <c r="O51" s="3">
         <v>4</v>
       </c>
@@ -3759,44 +3754,44 @@
       </c>
     </row>
     <row r="55" spans="4:20" ht="15.95" customHeight="1">
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
     </row>
     <row r="56" spans="4:20" ht="15.95" customHeight="1">
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
     </row>
     <row r="57" spans="4:20">
       <c r="D57" s="8"/>
@@ -3841,10 +3836,10 @@
       </c>
     </row>
     <row r="60" spans="4:20">
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="40">
         <v>5</v>
       </c>
       <c r="F60" s="3" t="s">
@@ -3858,10 +3853,10 @@
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
-      <c r="P60" s="37" t="s">
+      <c r="P60" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="Q60" s="34">
+      <c r="Q60" s="40">
         <v>5</v>
       </c>
       <c r="R60" s="3" t="s">
@@ -3875,8 +3870,8 @@
       </c>
     </row>
     <row r="61" spans="4:20">
-      <c r="D61" s="38"/>
-      <c r="E61" s="34"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="3" t="s">
         <v>107</v>
       </c>
@@ -3888,8 +3883,8 @@
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="34"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="40"/>
       <c r="R61" s="3" t="s">
         <v>107</v>
       </c>
@@ -3901,8 +3896,8 @@
       </c>
     </row>
     <row r="62" spans="4:20">
-      <c r="D62" s="38"/>
-      <c r="E62" s="38">
+      <c r="D62" s="43"/>
+      <c r="E62" s="43">
         <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -3916,8 +3911,8 @@
       </c>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38">
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43">
         <v>10</v>
       </c>
       <c r="R62" s="3" t="s">
@@ -3931,8 +3926,8 @@
       </c>
     </row>
     <row r="63" spans="4:20">
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="3" t="s">
         <v>107</v>
       </c>
@@ -3944,8 +3939,8 @@
       </c>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
       <c r="R63" s="3" t="s">
         <v>107</v>
       </c>
@@ -3957,8 +3952,8 @@
       </c>
     </row>
     <row r="64" spans="4:20">
-      <c r="D64" s="38"/>
-      <c r="E64" s="37">
+      <c r="D64" s="43"/>
+      <c r="E64" s="42">
         <v>25</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -3972,8 +3967,8 @@
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="37">
+      <c r="P64" s="43"/>
+      <c r="Q64" s="42">
         <v>25</v>
       </c>
       <c r="R64" s="3" t="s">
@@ -3987,8 +3982,8 @@
       </c>
     </row>
     <row r="65" spans="4:20">
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="3" t="s">
         <v>107</v>
       </c>
@@ -4000,8 +3995,8 @@
       </c>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
       <c r="R65" s="3" t="s">
         <v>107</v>
       </c>
@@ -4216,22 +4211,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="D34:D51"/>
-    <mergeCell ref="D55:T56"/>
-    <mergeCell ref="P60:P65"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="D3:T4"/>
-    <mergeCell ref="D29:T30"/>
-    <mergeCell ref="D8:D25"/>
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="M34:M51"/>
     <mergeCell ref="E8:E13"/>
@@ -4244,6 +4223,22 @@
     <mergeCell ref="N40:N45"/>
     <mergeCell ref="N46:N51"/>
     <mergeCell ref="M8:M25"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="D3:T4"/>
+    <mergeCell ref="D29:T30"/>
+    <mergeCell ref="D8:D25"/>
+    <mergeCell ref="P60:P65"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="D34:D51"/>
+    <mergeCell ref="D55:T56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4278,74 +4273,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="46.5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="19"/>
@@ -4361,20 +4356,20 @@
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="G6" s="8"/>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="V6" s="92" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="V6" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W6" s="93"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="19"/>
@@ -4411,7 +4406,7 @@
       <c r="Q7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="91"/>
+      <c r="R7" s="37"/>
       <c r="S7" s="3" t="s">
         <v>103</v>
       </c>
@@ -4445,13 +4440,13 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="40">
         <v>5</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="40">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -4460,7 +4455,7 @@
       <c r="K8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="42" t="s">
         <v>48</v>
       </c>
       <c r="N8" s="15">
@@ -4475,8 +4470,8 @@
       <c r="Q8" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="R8" s="91"/>
-      <c r="S8" s="34" t="s">
+      <c r="R8" s="37"/>
+      <c r="S8" s="40" t="s">
         <v>35</v>
       </c>
       <c r="T8" s="3">
@@ -4488,7 +4483,7 @@
       <c r="V8" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="X8" s="37" t="s">
+      <c r="X8" s="42" t="s">
         <v>48</v>
       </c>
       <c r="Y8" s="15">
@@ -4509,16 +4504,16 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="38"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="15">
         <v>10</v>
       </c>
@@ -4531,8 +4526,8 @@
       <c r="Q9" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="R9" s="91"/>
-      <c r="S9" s="34"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="40"/>
       <c r="T9" s="3">
         <v>5</v>
       </c>
@@ -4542,7 +4537,7 @@
       <c r="V9" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="X9" s="38"/>
+      <c r="X9" s="43"/>
       <c r="Y9" s="15">
         <v>10</v>
       </c>
@@ -4561,9 +4556,9 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34">
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40">
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -4572,7 +4567,7 @@
       <c r="K10" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="M10" s="39"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="15">
         <v>25</v>
       </c>
@@ -4585,8 +4580,8 @@
       <c r="Q10" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="R10" s="91"/>
-      <c r="S10" s="34"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="40"/>
       <c r="T10" s="18">
         <v>10</v>
       </c>
@@ -4596,7 +4591,7 @@
       <c r="V10" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X10" s="39"/>
+      <c r="X10" s="44"/>
       <c r="Y10" s="15">
         <v>25</v>
       </c>
@@ -4615,16 +4610,16 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="S11" s="34"/>
+      <c r="S11" s="40"/>
       <c r="T11" s="3">
         <v>10</v>
       </c>
@@ -4640,11 +4635,11 @@
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34">
+      <c r="G12" s="40"/>
+      <c r="H12" s="40">
         <v>10</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="40">
         <v>1</v>
       </c>
       <c r="J12" s="16" t="s">
@@ -4653,7 +4648,7 @@
       <c r="K12" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S12" s="34"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="3">
         <v>25</v>
       </c>
@@ -4669,16 +4664,16 @@
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S13" s="34"/>
+      <c r="S13" s="40"/>
       <c r="T13" s="3">
         <v>25</v>
       </c>
@@ -4694,9 +4689,9 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40">
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -4711,9 +4706,9 @@
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="3" t="s">
         <v>7</v>
       </c>
@@ -4726,11 +4721,11 @@
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40">
         <v>25</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="40">
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -4745,9 +4740,9 @@
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="3" t="s">
         <v>7</v>
       </c>
@@ -4760,9 +4755,9 @@
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34">
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40">
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -4777,9 +4772,9 @@
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="3" t="s">
         <v>7</v>
       </c>
@@ -4846,60 +4841,60 @@
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
-      <c r="G29" s="88" t="s">
+      <c r="G29" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49"/>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="19"/>
@@ -4907,8 +4902,6 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="G31" s="8"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
     </row>
     <row r="32" spans="1:29" ht="23.25">
       <c r="A32" s="19"/>
@@ -4916,20 +4909,20 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="G32" s="8"/>
-      <c r="K32" s="79" t="s">
+      <c r="K32" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="W32" s="79" t="s">
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="W32" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="19"/>
@@ -5002,10 +4995,10 @@
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="40">
         <v>5</v>
       </c>
       <c r="I34" s="6">
@@ -5017,7 +5010,7 @@
       <c r="K34" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M34" s="37" t="s">
+      <c r="M34" s="42" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="15">
@@ -5032,10 +5025,10 @@
       <c r="Q34" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="S34" s="39" t="s">
+      <c r="S34" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="T34" s="34">
+      <c r="T34" s="40">
         <v>5</v>
       </c>
       <c r="U34" s="6">
@@ -5047,7 +5040,7 @@
       <c r="W34" s="17">
         <v>0.69140000000000001</v>
       </c>
-      <c r="Y34" s="37" t="s">
+      <c r="Y34" s="42" t="s">
         <v>48</v>
       </c>
       <c r="Z34" s="3">
@@ -5068,8 +5061,8 @@
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="3">
         <v>3</v>
       </c>
@@ -5079,7 +5072,7 @@
       <c r="K35" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M35" s="38"/>
+      <c r="M35" s="43"/>
       <c r="N35" s="15">
         <v>10</v>
       </c>
@@ -5092,18 +5085,18 @@
       <c r="Q35" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
       <c r="U35" s="3">
         <v>3</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
-      <c r="W35" s="84">
+      <c r="W35" s="35">
         <v>0.71599999999999997</v>
       </c>
-      <c r="Y35" s="38"/>
+      <c r="Y35" s="43"/>
       <c r="Z35" s="3">
         <v>10</v>
       </c>
@@ -5122,8 +5115,8 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="3">
         <v>4</v>
       </c>
@@ -5133,7 +5126,7 @@
       <c r="K36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M36" s="39"/>
+      <c r="M36" s="44"/>
       <c r="N36" s="15">
         <v>25</v>
       </c>
@@ -5146,8 +5139,8 @@
       <c r="Q36" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
       <c r="U36" s="3">
         <v>4</v>
       </c>
@@ -5157,7 +5150,7 @@
       <c r="W36" s="17">
         <v>0.71599999999999997</v>
       </c>
-      <c r="Y36" s="39"/>
+      <c r="Y36" s="44"/>
       <c r="Z36" s="3">
         <v>25</v>
       </c>
@@ -5176,8 +5169,8 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="6">
         <v>2</v>
       </c>
@@ -5187,8 +5180,8 @@
       <c r="K37" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
       <c r="U37" s="6">
         <v>2</v>
       </c>
@@ -5204,8 +5197,8 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="3">
         <v>3</v>
       </c>
@@ -5215,15 +5208,15 @@
       <c r="K38" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
       <c r="U38" s="3">
         <v>3</v>
       </c>
       <c r="V38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="W38" s="85">
+      <c r="W38" s="36">
         <v>0.72840000000000005</v>
       </c>
     </row>
@@ -5232,8 +5225,8 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="3">
         <v>4</v>
       </c>
@@ -5243,8 +5236,8 @@
       <c r="K39" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
       <c r="U39" s="3">
         <v>4</v>
       </c>
@@ -5260,8 +5253,8 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34">
+      <c r="G40" s="40"/>
+      <c r="H40" s="40">
         <v>10</v>
       </c>
       <c r="I40" s="6">
@@ -5273,8 +5266,8 @@
       <c r="K40" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34">
+      <c r="S40" s="40"/>
+      <c r="T40" s="40">
         <v>10</v>
       </c>
       <c r="U40" s="6">
@@ -5292,8 +5285,8 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="3">
         <v>3</v>
       </c>
@@ -5303,15 +5296,15 @@
       <c r="K41" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
       <c r="U41" s="18">
         <v>3</v>
       </c>
       <c r="V41" s="18">
         <v>0</v>
       </c>
-      <c r="W41" s="85">
+      <c r="W41" s="36">
         <v>0.72840000000000005</v>
       </c>
     </row>
@@ -5320,8 +5313,8 @@
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="3">
         <v>4</v>
       </c>
@@ -5331,15 +5324,15 @@
       <c r="K42" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
       <c r="U42" s="3">
         <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="W42" s="85">
+      <c r="W42" s="36">
         <v>0.72840000000000005</v>
       </c>
     </row>
@@ -5348,8 +5341,8 @@
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="6">
         <v>2</v>
       </c>
@@ -5359,8 +5352,8 @@
       <c r="K43" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
       <c r="U43" s="6">
         <v>2</v>
       </c>
@@ -5376,8 +5369,8 @@
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="3">
         <v>3</v>
       </c>
@@ -5387,15 +5380,15 @@
       <c r="K44" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
       <c r="U44" s="3">
         <v>3</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="W44" s="85">
+      <c r="W44" s="36">
         <v>0.72840000000000005</v>
       </c>
     </row>
@@ -5404,8 +5397,8 @@
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="3">
         <v>4</v>
       </c>
@@ -5415,15 +5408,15 @@
       <c r="K45" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
       <c r="U45" s="3">
         <v>4</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="W45" s="85">
+      <c r="W45" s="36">
         <v>0.72840000000000005</v>
       </c>
     </row>
@@ -5432,8 +5425,8 @@
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34">
+      <c r="G46" s="40"/>
+      <c r="H46" s="40">
         <v>25</v>
       </c>
       <c r="I46" s="6">
@@ -5445,8 +5438,8 @@
       <c r="K46" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34">
+      <c r="S46" s="40"/>
+      <c r="T46" s="40">
         <v>25</v>
       </c>
       <c r="U46" s="6">
@@ -5464,8 +5457,8 @@
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="3">
         <v>3</v>
       </c>
@@ -5475,8 +5468,8 @@
       <c r="K47" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
       <c r="U47" s="3">
         <v>3</v>
       </c>
@@ -5492,8 +5485,8 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="3">
         <v>4</v>
       </c>
@@ -5503,8 +5496,8 @@
       <c r="K48" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
       <c r="U48" s="3">
         <v>4</v>
       </c>
@@ -5520,8 +5513,8 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="6">
         <v>2</v>
       </c>
@@ -5531,8 +5524,8 @@
       <c r="K49" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
       <c r="U49" s="6">
         <v>2</v>
       </c>
@@ -5548,8 +5541,8 @@
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="3">
         <v>3</v>
       </c>
@@ -5559,8 +5552,8 @@
       <c r="K50" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
       <c r="U50" s="3">
         <v>3</v>
       </c>
@@ -5576,8 +5569,8 @@
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="3">
         <v>4</v>
       </c>
@@ -5587,8 +5580,8 @@
       <c r="K51" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
       <c r="U51" s="3">
         <v>4</v>
       </c>
@@ -5622,81 +5615,75 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
-      <c r="G55" s="88" t="s">
+      <c r="G55" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="89"/>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="89"/>
-      <c r="S55" s="89"/>
-      <c r="T55" s="89"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="89"/>
-      <c r="W55" s="89"/>
-      <c r="X55" s="89"/>
-      <c r="Y55" s="89"/>
-      <c r="Z55" s="89"/>
-      <c r="AA55" s="89"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="49"/>
+      <c r="Z55" s="49"/>
+      <c r="AA55" s="49"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="89"/>
-      <c r="Q56" s="89"/>
-      <c r="R56" s="89"/>
-      <c r="S56" s="89"/>
-      <c r="T56" s="89"/>
-      <c r="U56" s="89"/>
-      <c r="V56" s="89"/>
-      <c r="W56" s="89"/>
-      <c r="X56" s="89"/>
-      <c r="Y56" s="89"/>
-      <c r="Z56" s="89"/>
-      <c r="AA56" s="89"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="49"/>
+      <c r="Z56" s="49"/>
+      <c r="AA56" s="49"/>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="W57" s="90"/>
     </row>
     <row r="58" spans="1:27" ht="23.25">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="J58" s="79" t="s">
+      <c r="J58" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="W58" s="90"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="19"/>
@@ -5712,10 +5699,10 @@
       <c r="I59" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J59" s="78" t="s">
+      <c r="J59" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="78" t="s">
+      <c r="N59" s="33" t="s">
         <v>103</v>
       </c>
       <c r="O59" s="6" t="s">
@@ -5733,10 +5720,10 @@
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="34">
+      <c r="H60" s="40">
         <v>5</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -5745,10 +5732,10 @@
       <c r="J60" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="N60" s="37" t="s">
+      <c r="N60" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="O60" s="34">
+      <c r="O60" s="40">
         <v>5</v>
       </c>
       <c r="P60" s="3" t="s">
@@ -5763,16 +5750,16 @@
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="3" t="s">
         <v>107</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="N61" s="38"/>
-      <c r="O61" s="34"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="40"/>
       <c r="P61" s="3" t="s">
         <v>107</v>
       </c>
@@ -5785,8 +5772,8 @@
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34">
+      <c r="G62" s="40"/>
+      <c r="H62" s="40">
         <v>10</v>
       </c>
       <c r="I62" s="3" t="s">
@@ -5795,8 +5782,8 @@
       <c r="J62" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38">
+      <c r="N62" s="43"/>
+      <c r="O62" s="43">
         <v>10</v>
       </c>
       <c r="P62" s="3" t="s">
@@ -5811,16 +5798,16 @@
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
       <c r="I63" s="3" t="s">
         <v>107</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
       <c r="P63" s="3" t="s">
         <v>107</v>
       </c>
@@ -5833,8 +5820,8 @@
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34">
+      <c r="G64" s="40"/>
+      <c r="H64" s="40">
         <v>25</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -5843,8 +5830,8 @@
       <c r="J64" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="N64" s="38"/>
-      <c r="O64" s="37">
+      <c r="N64" s="43"/>
+      <c r="O64" s="42">
         <v>25</v>
       </c>
       <c r="P64" s="3" t="s">
@@ -5859,16 +5846,16 @@
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
       <c r="I65" s="3" t="s">
         <v>107</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
       <c r="P65" s="3" t="s">
         <v>107</v>
       </c>
@@ -5899,16 +5886,16 @@
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="81" t="s">
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="K69" s="82"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="83"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="56"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" customHeight="1">
       <c r="A70" s="19"/>
@@ -5945,10 +5932,10 @@
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
-      <c r="G71" s="37" t="s">
+      <c r="G71" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H71" s="34">
+      <c r="H71" s="40">
         <v>5</v>
       </c>
       <c r="I71" s="3" t="s">
@@ -5957,7 +5944,7 @@
       <c r="J71" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M71" s="37" t="s">
+      <c r="M71" s="42" t="s">
         <v>48</v>
       </c>
       <c r="N71" s="3">
@@ -5975,15 +5962,15 @@
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="34"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="40"/>
       <c r="I72" s="3" t="s">
         <v>107</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M72" s="38"/>
+      <c r="M72" s="43"/>
       <c r="N72" s="3">
         <v>10</v>
       </c>
@@ -5999,8 +5986,8 @@
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38">
+      <c r="G73" s="43"/>
+      <c r="H73" s="43">
         <v>10</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -6009,7 +5996,7 @@
       <c r="J73" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M73" s="39"/>
+      <c r="M73" s="44"/>
       <c r="N73" s="3">
         <v>25</v>
       </c>
@@ -6025,8 +6012,8 @@
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
       <c r="I74" s="3" t="s">
         <v>107</v>
       </c>
@@ -6039,8 +6026,8 @@
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="37">
+      <c r="G75" s="43"/>
+      <c r="H75" s="42">
         <v>25</v>
       </c>
       <c r="I75" s="3" t="s">
@@ -6055,8 +6042,8 @@
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
       <c r="I76" s="3" t="s">
         <v>107</v>
       </c>
@@ -6102,6 +6089,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="G34:G51"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H46:H51"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="G8:G19"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H12:H15"/>
     <mergeCell ref="M71:M73"/>
     <mergeCell ref="K32:O32"/>
     <mergeCell ref="W32:AA32"/>
@@ -6117,37 +6134,7 @@
     <mergeCell ref="T46:T51"/>
     <mergeCell ref="G55:AA56"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H64:H65"/>
     <mergeCell ref="S8:S13"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="G8:G19"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="G34:G51"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="H46:H51"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="Y34:Y36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6157,7 +6144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3369F178-DDAF-4AC9-B9F2-1C74AFA958DB}">
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="95" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H6" sqref="H6:J6"/>
     </sheetView>
   </sheetViews>
@@ -6206,17 +6193,17 @@
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -6242,28 +6229,28 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="22"/>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="57" t="s">
+      <c r="L6" s="60"/>
+      <c r="M6" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="N6" s="58"/>
+      <c r="N6" s="60"/>
       <c r="O6" s="23" t="s">
         <v>241</v>
       </c>
@@ -6272,28 +6259,28 @@
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="22"/>
-      <c r="C7" s="51">
+      <c r="C7" s="61">
         <v>10</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61">
         <v>10</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61">
         <v>20</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="67">
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62">
         <v>0.2</v>
       </c>
-      <c r="L7" s="69"/>
-      <c r="M7" s="54">
+      <c r="L7" s="63"/>
+      <c r="M7" s="64">
         <v>1E-4</v>
       </c>
-      <c r="N7" s="55"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="24">
         <v>52.11</v>
       </c>
@@ -6302,28 +6289,28 @@
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="22"/>
-      <c r="C8" s="51">
+      <c r="C8" s="61">
         <v>10</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61">
         <v>10</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51">
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61">
         <v>20</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52">
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="66">
         <v>0.2</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54">
+      <c r="L8" s="67"/>
+      <c r="M8" s="64">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="24">
         <v>54.43</v>
       </c>
@@ -6332,28 +6319,28 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="22"/>
-      <c r="C9" s="51">
+      <c r="C9" s="61">
         <v>10</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="67">
+      <c r="D9" s="61"/>
+      <c r="E9" s="62">
         <v>10</v>
       </c>
       <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="51">
+      <c r="G9" s="63"/>
+      <c r="H9" s="61">
         <v>20</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51">
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61">
         <v>0.1</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="70">
+      <c r="L9" s="61"/>
+      <c r="M9" s="69">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N9" s="51"/>
+      <c r="N9" s="61"/>
       <c r="O9" s="24">
         <v>49.11</v>
       </c>
@@ -6362,28 +6349,28 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="22"/>
-      <c r="C10" s="62">
+      <c r="C10" s="70">
         <v>10</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="62">
+      <c r="D10" s="71"/>
+      <c r="E10" s="70">
         <v>5</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="62">
+      <c r="F10" s="72"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="70">
         <v>20</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="62">
+      <c r="I10" s="72"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="70">
         <v>0.2</v>
       </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="65">
+      <c r="L10" s="71"/>
+      <c r="M10" s="73">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N10" s="66"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="24">
         <v>54.19</v>
       </c>
@@ -6392,28 +6379,28 @@
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="22"/>
-      <c r="C11" s="60">
+      <c r="C11" s="75">
         <v>10</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60">
+      <c r="D11" s="75"/>
+      <c r="E11" s="75">
         <v>5</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60">
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75">
         <v>20</v>
       </c>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60">
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75">
         <v>0.2</v>
       </c>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61">
+      <c r="L11" s="75"/>
+      <c r="M11" s="76">
         <v>1E-4</v>
       </c>
-      <c r="N11" s="60"/>
+      <c r="N11" s="75"/>
       <c r="O11" s="25">
         <v>64.650000000000006</v>
       </c>
@@ -6423,28 +6410,28 @@
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="22"/>
-      <c r="C12" s="42">
+      <c r="C12" s="77">
         <v>10</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="42">
+      <c r="D12" s="78"/>
+      <c r="E12" s="77">
         <v>10</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="42">
+      <c r="F12" s="79"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="77">
         <v>30</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="42">
+      <c r="I12" s="79"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="77">
         <v>0.2</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="45">
+      <c r="L12" s="78"/>
+      <c r="M12" s="80">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N12" s="46"/>
+      <c r="N12" s="81"/>
       <c r="O12" s="24">
         <v>53.04</v>
       </c>
@@ -6453,28 +6440,28 @@
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="22"/>
-      <c r="C13" s="40">
+      <c r="C13" s="82">
         <v>80</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40">
+      <c r="D13" s="82"/>
+      <c r="E13" s="82">
         <v>10</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40">
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82">
         <v>20</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40">
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82">
         <v>0.2</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41">
+      <c r="L13" s="82"/>
+      <c r="M13" s="83">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="24">
         <v>52.35</v>
       </c>
@@ -6575,17 +6562,17 @@
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -6611,28 +6598,28 @@
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="22"/>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57" t="s">
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="57" t="s">
+      <c r="L21" s="60"/>
+      <c r="M21" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="N21" s="58"/>
+      <c r="N21" s="60"/>
       <c r="O21" s="23" t="s">
         <v>241</v>
       </c>
@@ -6641,28 +6628,28 @@
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="22"/>
-      <c r="C22" s="51">
+      <c r="C22" s="61">
         <v>10</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51">
+      <c r="D22" s="61"/>
+      <c r="E22" s="61">
         <v>10</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51">
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61">
         <v>20</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52">
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="66">
         <v>0.01</v>
       </c>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54">
+      <c r="L22" s="67"/>
+      <c r="M22" s="64">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N22" s="55"/>
+      <c r="N22" s="65"/>
       <c r="O22" s="24">
         <v>50.44</v>
       </c>
@@ -6671,28 +6658,28 @@
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="22"/>
-      <c r="C23" s="49">
+      <c r="C23" s="84">
         <v>10</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49">
+      <c r="D23" s="84"/>
+      <c r="E23" s="84">
         <v>5</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49">
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84">
         <v>20</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49">
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84">
         <v>0.01</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50">
+      <c r="L23" s="84"/>
+      <c r="M23" s="85">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N23" s="49"/>
+      <c r="N23" s="84"/>
       <c r="O23" s="25">
         <v>58.97</v>
       </c>
@@ -6701,28 +6688,28 @@
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="22"/>
-      <c r="C24" s="47">
+      <c r="C24" s="86">
         <v>10</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47">
+      <c r="D24" s="86"/>
+      <c r="E24" s="86">
         <v>5</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47">
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86">
         <v>20</v>
       </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47">
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86">
         <v>0.01</v>
       </c>
-      <c r="L24" s="47"/>
-      <c r="M24" s="48">
+      <c r="L24" s="86"/>
+      <c r="M24" s="87">
         <v>1E-4</v>
       </c>
-      <c r="N24" s="47"/>
+      <c r="N24" s="86"/>
       <c r="O24" s="24">
         <v>58.52</v>
       </c>
@@ -6731,28 +6718,28 @@
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="22"/>
-      <c r="C25" s="47">
+      <c r="C25" s="86">
         <v>10</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47">
+      <c r="D25" s="86"/>
+      <c r="E25" s="86">
         <v>5</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47">
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86">
         <v>20</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47">
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86">
         <v>0.05</v>
       </c>
-      <c r="L25" s="47"/>
-      <c r="M25" s="48">
+      <c r="L25" s="86"/>
+      <c r="M25" s="87">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N25" s="47"/>
+      <c r="N25" s="86"/>
       <c r="O25" s="24">
         <v>51.76</v>
       </c>
@@ -6761,28 +6748,28 @@
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="22"/>
-      <c r="C26" s="42">
+      <c r="C26" s="77">
         <v>10</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="42">
+      <c r="D26" s="78"/>
+      <c r="E26" s="77">
         <v>10</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="42">
+      <c r="F26" s="79"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="77">
         <v>30</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="42">
+      <c r="I26" s="79"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="77">
         <v>0.01</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="45">
+      <c r="L26" s="78"/>
+      <c r="M26" s="80">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N26" s="46"/>
+      <c r="N26" s="81"/>
       <c r="O26" s="24">
         <v>47.39</v>
       </c>
@@ -6791,28 +6778,28 @@
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="22"/>
-      <c r="C27" s="40">
+      <c r="C27" s="82">
         <v>80</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40">
+      <c r="D27" s="82"/>
+      <c r="E27" s="82">
         <v>10</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40">
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82">
         <v>20</v>
       </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40">
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82">
         <v>0.2</v>
       </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="41">
+      <c r="L27" s="82"/>
+      <c r="M27" s="83">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N27" s="40"/>
+      <c r="N27" s="82"/>
       <c r="O27" s="24">
         <v>47.97</v>
       </c>
@@ -6857,83 +6844,83 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6941,67 +6928,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD454F57-45CA-4AF2-B16E-A73BB64885F3}">
-  <dimension ref="A2:O25"/>
+  <dimension ref="B2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
     <col min="11" max="11" width="22.125" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
-      <c r="C2" s="71" t="s">
+    <row r="2" spans="2:15">
+      <c r="C2" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="C3" s="72">
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="C3" s="93">
         <v>800</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72">
+      <c r="D3" s="93"/>
+      <c r="E3" s="93">
         <v>0.01</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72">
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93">
         <v>-7</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="K4" s="97"/>
-      <c r="M4" s="77" t="s">
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="M4" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+    </row>
+    <row r="6" spans="2:15">
       <c r="E6" s="16" t="s">
         <v>232</v>
       </c>
@@ -7012,7 +6998,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="2:15">
       <c r="C7" s="21" t="s">
         <v>233</v>
       </c>
@@ -7041,7 +7027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="2:15">
       <c r="C8" s="21" t="s">
         <v>234</v>
       </c>
@@ -7072,195 +7058,205 @@
         <v>82.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="C9" s="73" t="s">
+    <row r="9" spans="2:15">
+      <c r="C9" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="3">
         <v>79.66</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="I9" s="75"/>
+      <c r="I9" s="92"/>
       <c r="J9" s="3">
         <v>77.12</v>
       </c>
-      <c r="M9" s="76" t="s">
+      <c r="M9" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="N9" s="76"/>
+      <c r="N9" s="88"/>
       <c r="O9" s="28">
         <v>67.8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="C10" s="73" t="s">
+    <row r="10" spans="2:15">
+      <c r="C10" s="90" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="27">
         <v>81.36</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="75"/>
+      <c r="I10" s="92"/>
       <c r="J10" s="27">
         <v>83.05</v>
       </c>
       <c r="K10" s="20"/>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="N10" s="76"/>
+      <c r="N10" s="88"/>
       <c r="O10" s="28">
         <v>81.36</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="C11" s="73" t="s">
+    <row r="11" spans="2:15">
+      <c r="C11" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="3">
         <v>73.73</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="92"/>
       <c r="J11" s="3">
         <v>80.510000000000005</v>
       </c>
-      <c r="M11" s="76" t="s">
+      <c r="M11" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="N11" s="76"/>
+      <c r="N11" s="88"/>
       <c r="O11" s="28">
         <v>75.42</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="C12" s="73" t="s">
+    <row r="12" spans="2:15">
+      <c r="C12" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="3">
         <v>69.489999999999995</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="3">
         <v>77.97</v>
       </c>
-      <c r="M12" s="76" t="s">
+      <c r="M12" s="88" t="s">
         <v>245</v>
       </c>
-      <c r="N12" s="76"/>
+      <c r="N12" s="88"/>
       <c r="O12" s="28">
         <v>77.97</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="C13" s="73" t="s">
+    <row r="13" spans="2:15">
+      <c r="C13" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="3">
         <v>77.12</v>
       </c>
       <c r="G13" s="19"/>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="I13" s="75"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="3">
         <v>81.36</v>
       </c>
-      <c r="M13" s="76" t="s">
+      <c r="M13" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="N13" s="76"/>
+      <c r="N13" s="88"/>
       <c r="O13" s="28">
         <v>75.42</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="90"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="72" t="s">
+    <row r="14" spans="2:15">
+      <c r="B14" s="19"/>
+      <c r="C14" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="72"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="3">
         <v>77.12</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="I14" s="75"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="30">
         <v>82.2</v>
       </c>
-      <c r="M14" s="76" t="s">
+      <c r="M14" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="N14" s="76"/>
+      <c r="N14" s="88"/>
       <c r="O14" s="28">
         <v>77.12</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="90"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="72" t="s">
+    <row r="15" spans="2:15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="3">
         <v>68.64</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="92"/>
       <c r="J15" s="3">
         <v>80.510000000000005</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="N15" s="76"/>
+      <c r="N15" s="88"/>
       <c r="O15" s="28">
         <v>79.66</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-    </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="2:2">
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="2:2">
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="2:2">
       <c r="B25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M9:N9"/>
@@ -7269,26 +7265,6 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
